--- a/part_3_cohere/analysis/dense_answer_relevance_results_data.xlsx
+++ b/part_3_cohere/analysis/dense_answer_relevance_results_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/part_3_cohere/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5180BC4A-9CE9-5B47-8567-522520714760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A737BBAC-1A56-FC44-9E81-1E9FC9E2626C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="760" windowWidth="27520" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3652,8 +3652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/part_3_cohere/analysis/dense_answer_relevance_results_data.xlsx
+++ b/part_3_cohere/analysis/dense_answer_relevance_results_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/part_3_cohere/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A737BBAC-1A56-FC44-9E81-1E9FC9E2626C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4468BB-0F7F-0944-8AC0-1C2F254664DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="760" windowWidth="27520" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="800" windowWidth="27520" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="analysis" sheetId="2" r:id="rId1"/>
@@ -2122,7 +2122,7 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="analysis"/>
-      <sheetName val="raw_data"/>
+      <sheetName val="raw data"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -2402,7 +2402,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3202,7 +3202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859CEBBA-6969-D74B-8566-32A63114C232}">
   <dimension ref="A3:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -3652,7 +3652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
